--- a/importance_scores/importance_scores_wine-quality-red.xlsx
+++ b/importance_scores/importance_scores_wine-quality-red.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>features</t>
   </si>
   <si>
-    <t>PFBI FuzzyCMeans</t>
+    <t>PBFI FuzzyCMeans</t>
   </si>
   <si>
     <t>SHAP FuzzyCMeans</t>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI Spectral</t>
-  </si>
-  <si>
-    <t>SHAP Spectral</t>
   </si>
   <si>
     <t>F1</t>
@@ -425,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,231 +441,225 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.1842366339992988</v>
       </c>
       <c r="D2">
-        <v>0.0823442707854872</v>
+        <v>0.08290646673613644</v>
       </c>
       <c r="E2">
         <v>0.1052530793246894</v>
       </c>
       <c r="F2">
-        <v>0.2366455853992516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.2335552283271206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.1017086961922081</v>
       </c>
       <c r="D3">
-        <v>0.04664723956861437</v>
+        <v>0.04488289513759224</v>
       </c>
       <c r="E3">
         <v>0.0622434449714253</v>
       </c>
       <c r="F3">
-        <v>0.05884304069913721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.05456690877075489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.2575058487609211</v>
       </c>
       <c r="D4">
-        <v>0.159245025248808</v>
+        <v>0.1638725110335665</v>
       </c>
       <c r="E4">
         <v>0.1498896434306138</v>
       </c>
       <c r="F4">
-        <v>0.2921290083899887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.2932489927425835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.01363824888168394</v>
       </c>
       <c r="D5">
-        <v>0.008401562254132989</v>
+        <v>0.007453697443665185</v>
       </c>
       <c r="E5">
-        <v>0.02693768761792553</v>
+        <v>0.02693768761792551</v>
       </c>
       <c r="F5">
-        <v>0.01602054779005775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.01329792284352091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.008946939788587358</v>
       </c>
       <c r="D6">
-        <v>0.005043667760468413</v>
+        <v>0.004084727646293903</v>
       </c>
       <c r="E6">
         <v>0.09241535627409983</v>
       </c>
       <c r="F6">
-        <v>0.023123629396796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.02393125643708655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0.06150242395941932</v>
       </c>
       <c r="D7">
-        <v>0.03630389496715159</v>
+        <v>0.03625881774809424</v>
       </c>
       <c r="E7">
-        <v>0.07620765456615604</v>
+        <v>0.07620765456615605</v>
       </c>
       <c r="F7">
-        <v>0.3333131044204215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.3168642455887529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.05674806249250926</v>
       </c>
       <c r="D8">
-        <v>0.02974953203103058</v>
+        <v>0.0292981487345342</v>
       </c>
       <c r="E8">
         <v>0.06739689085261766</v>
       </c>
       <c r="F8">
-        <v>0.2513455307565042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.2483667294547544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0.09407812992523461</v>
       </c>
       <c r="D9">
-        <v>0.03995682101043118</v>
+        <v>0.04020806621326361</v>
       </c>
       <c r="E9">
         <v>0.1017845837555736</v>
       </c>
       <c r="F9">
-        <v>0.1600189487116338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.1691299807439491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0.103388563955412</v>
       </c>
       <c r="D10">
-        <v>0.03825572682715486</v>
+        <v>0.03863607954739814</v>
       </c>
       <c r="E10">
         <v>0.09660243969693842</v>
       </c>
       <c r="F10">
-        <v>0.0931802734302737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.08947522702308468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0.04480555345782374</v>
       </c>
       <c r="D11">
-        <v>0.01697736289656352</v>
+        <v>0.01633930335589508</v>
       </c>
       <c r="E11">
         <v>0.09885961507289745</v>
       </c>
       <c r="F11">
-        <v>0.028681298647152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.02559090830952784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0.07344089858690177</v>
       </c>
       <c r="D12">
-        <v>0.05183080258376505</v>
+        <v>0.05400334675689791</v>
       </c>
       <c r="E12">
         <v>0.1224096044370629</v>
       </c>
       <c r="F12">
-        <v>0.4695507592227002</v>
+        <v>0.4925505460595895</v>
       </c>
     </row>
   </sheetData>
